--- a/guncel_bulten_2026-02-20.xlsx
+++ b/guncel_bulten_2026-02-20.xlsx
@@ -791,27 +791,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -833,22 +833,22 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -863,7 +863,7 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -5555,52 +5555,52 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5642,7 +5642,7 @@
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -5936,47 +5936,47 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -6023,7 +6023,7 @@
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -6063,47 +6063,47 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6150,7 +6150,7 @@
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
@@ -6190,22 +6190,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6215,47 +6215,47 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -6265,32 +6265,32 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr"/>
@@ -6309,12 +6309,12 @@
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -6984,32 +6984,32 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -7071,7 +7071,7 @@
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -7307,12 +7307,12 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr"/>
@@ -7325,12 +7325,12 @@
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.17</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7375,22 +7375,22 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -7452,7 +7452,7 @@
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
@@ -7510,12 +7510,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7539,12 +7539,12 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -8005,12 +8005,12 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -8517,12 +8517,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8544,12 +8544,12 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -8598,42 +8598,42 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -8685,7 +8685,7 @@
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr">
@@ -8844,17 +8844,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -8862,12 +8862,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8877,12 +8877,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
@@ -10272,22 +10272,22 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10307,24 +10307,24 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="X83" t="inlineStr"/>
@@ -10339,7 +10339,7 @@
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="AI83" t="inlineStr">
@@ -11141,27 +11141,27 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11181,17 +11181,17 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -11201,22 +11201,22 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
@@ -11237,7 +11237,7 @@
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr">
@@ -11348,24 +11348,24 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>1.86</t>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -11388,17 +11388,17 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -12222,47 +12222,47 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -12272,47 +12272,47 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr"/>
@@ -12333,12 +12333,12 @@
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -12653,12 +12653,12 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12682,12 +12682,12 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -13598,24 +13598,24 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>23.10</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -13630,12 +13630,12 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="T108" t="inlineStr"/>
@@ -13644,32 +13644,32 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AD108" t="inlineStr"/>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -13819,37 +13819,37 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -14502,22 +14502,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -14527,12 +14527,12 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -14643,22 +14643,22 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -14746,7 +14746,7 @@
       <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="AI116" t="inlineStr">
@@ -15684,37 +15684,37 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -15724,17 +15724,17 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -15787,7 +15787,7 @@
       <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AI123" t="inlineStr">
@@ -16502,22 +16502,22 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16527,32 +16527,32 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="T129" t="inlineStr"/>
@@ -16589,12 +16589,12 @@
       <c r="AG129" t="inlineStr"/>
       <c r="AH129" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -16764,47 +16764,47 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -16851,7 +16851,7 @@
       <c r="AG131" t="inlineStr"/>
       <c r="AH131" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="AI131" t="inlineStr">
@@ -16891,47 +16891,47 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -16946,46 +16946,46 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="AA132" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
       <c r="AD132" t="inlineStr"/>
@@ -16994,7 +16994,7 @@
       <c r="AG132" t="inlineStr"/>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
@@ -17471,97 +17471,97 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -17582,7 +17582,7 @@
       <c r="AG136" t="inlineStr"/>
       <c r="AH136" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="AI136" t="inlineStr">
@@ -20489,79 +20489,79 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
@@ -20576,12 +20576,12 @@
       <c r="AG158" t="inlineStr"/>
       <c r="AH158" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.07</t>
         </is>
       </c>
     </row>
@@ -21322,27 +21322,27 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -21362,42 +21362,42 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -21407,7 +21407,7 @@
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -21418,7 +21418,7 @@
       <c r="AG164" t="inlineStr"/>
       <c r="AH164" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="AI164" t="inlineStr">
@@ -21879,22 +21879,22 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -21904,12 +21904,12 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -21990,7 +21990,7 @@
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AI168" t="inlineStr">
@@ -22276,22 +22276,22 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -22301,32 +22301,32 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
@@ -22379,7 +22379,7 @@
       <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="AI171" t="inlineStr">
@@ -22561,82 +22561,82 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
@@ -22657,7 +22657,7 @@
       <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="AI173" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -22850,12 +22850,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -22905,7 +22905,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
@@ -26820,22 +26820,22 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -26860,7 +26860,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -26870,7 +26870,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -26885,7 +26885,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
@@ -26931,7 +26931,7 @@
       <c r="AG203" t="inlineStr"/>
       <c r="AH203" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AI203" t="inlineStr">
